--- a/2015-2016/clases/informatica_aplicada/clase_5/practica/claudia_saens.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_5/practica/claudia_saens.xlsx
@@ -421,12 +421,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="F2" s="2" t="b">
         <f>practica!D10=COUNTIF(E4:E17,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -2348,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:AA28"/>
+  <dimension ref="A5:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2363,7 @@
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F5" s="16">
         <v>65</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="K5" s="16">
         <v>63</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="25" t="s">
         <v>55</v>
       </c>
       <c r="Q5" s="16">
@@ -2419,7 +2419,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F6" s="16">
         <v>65</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="K6" s="16">
         <v>62</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>56</v>
       </c>
       <c r="Q6" s="16">
@@ -2459,33 +2459,33 @@
       <c r="V6" s="16">
         <v>11130</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="26">
         <f>TREND(Q6:V6,Q5:V5)</f>
         <v>10358.333333333314</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X6" s="26">
         <f>TREND(Q6:W6,Q5:W5)</f>
         <v>10540.690476190488</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y6" s="26">
         <f>TREND(Q6:X6,Q5:X5)</f>
         <v>10611.607142857145</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="26">
         <f>TREND(Q6:Y6,Q5:Y5)</f>
         <v>10643.125661375661</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AA6" s="26">
         <f>TREND(Q6:Z6,Q5:Z5)</f>
         <v>10658.598388648388</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F7" s="16">
         <v>65</v>
       </c>
       <c r="G7" s="16">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H7" s="16">
         <v>67</v>
@@ -2500,12 +2500,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F8" s="16">
         <v>65</v>
       </c>
       <c r="G8" s="16">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H8" s="16">
         <v>65</v>
@@ -2519,31 +2519,43 @@
       <c r="K8" s="16">
         <v>57</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C10" s="23" t="s">
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>66</v>
       </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
       <c r="D10">
-        <f>FREQUENCY(F5:K8,{55;60})</f>
-        <v>3</v>
-      </c>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+        <f>COUNTIFS(F5:K8,"&gt;="&amp;B10,F5:K8,"&lt;"&amp;C10)</f>
+        <v>6</v>
+      </c>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>67</v>
       </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
       <c r="D11">
-        <f>FREQUENCY(F5:K8,{60;65})</f>
-        <v>7</v>
+        <f t="shared" ref="D11:D12" si="0">COUNTIFS(F6:K9,"&gt;="&amp;B11,F6:K9,"&lt;"&amp;C11)</f>
+        <v>3</v>
       </c>
       <c r="O11" s="8">
         <v>1</v>
@@ -2560,16 +2572,22 @@
       <c r="S11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
       <c r="D12">
-        <f>FREQUENCY(F5:K8,{65;70})</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
@@ -2586,10 +2604,10 @@
       <c r="S12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="O13" s="8">
         <v>3</v>
       </c>
@@ -2606,13 +2624,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D14">
         <f>COUNTIF(F5:K8,"&gt;=60")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2620,7 +2638,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>70</v>
       </c>
@@ -2634,13 +2652,13 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D16">
         <f>COUNTIF(F5:K8,"&gt;65")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2664,7 +2682,7 @@
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E17" s="24">
         <f>D16/C18</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="O17" s="8">
         <v>2</v>
@@ -2793,7 +2811,10 @@
         <f>FORECAST(O26,Q11:Q13,O11:O13)</f>
         <v>5</v>
       </c>
-      <c r="R26" s="28"/>
+      <c r="R26" s="27">
+        <f>FORECAST(O26,R11:R13,O11:O13)</f>
+        <v>4.3333333333333339</v>
+      </c>
       <c r="S26" s="8" t="s">
         <v>63</v>
       </c>
